--- a/data/trans_dic/P27F_5_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P27F_5_R-Urba-trans_dic.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -98,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -111,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,298 +485,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Población que no pudo recibir consulta con algún psiquiatra por motivos económicos cuando la necesitaba (tasa de respuesta: 99,73%)</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Urbano</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,2%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 6,68</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,72; 5,04</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 4,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,51%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,51%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,66</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 4,12</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 2,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,76%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 3,91</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 3,56</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 2,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -790,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no pudo recibir consulta con algún psiquiatra por motivos económicos cuando la necesitaba (tasa de respuesta: 99,73%)</t>
+          <t>Población que no pudo recibir consulta con algún psiquiatra por motivos económicos cuando la necesitaba (tasa de respuesta: 99,31%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -844,69 +560,51 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.02244964486481836</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.02140709689119102</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.02190330146344728</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>11292</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>12746</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>24038</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.004172085762169583</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.006507174902725982</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.008965402990019824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2252; 34253</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4027; 28012</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10068; 48851</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.06806329715514375</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.04702755060530417</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.04452733486746511</v>
       </c>
     </row>
     <row r="7">
@@ -917,69 +615,51 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.004668441246737702</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.01464272663023282</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.009741182827765607</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2102</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6452</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8553</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.003842361198663639</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.002651148820873455</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0; 10898</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1790; 17639</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2244; 22717</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.02370836545451479</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03874231280630613</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.02615031335911287</v>
       </c>
     </row>
     <row r="10">
@@ -990,70 +670,40 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1063,69 +713,51 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.01271936729588855</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.01653607429851109</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.0146792428487395</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>13394</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>19198</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>32592</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.003585268939185971</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.008218565681078333</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.00728278771007801</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>3628; 40726</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9640; 38889</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>16474; 57355</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.03823797374464456</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.03351613513053064</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.02568016850804543</v>
       </c>
     </row>
     <row r="16">
@@ -1145,4 +777,372 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no pudo recibir consulta con algún psiquiatra por motivos económicos cuando la necesitaba (tasa de respuesta: 99,31%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>11247</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>11808</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>23055</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>2090</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>3589</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>9437</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>34099</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>25941</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>46869</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1934</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>6279</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>8214</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>1648</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>9824</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>16614</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>13181</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>18088</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>31269</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>3716</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>8990</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>15514</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>39627</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>36661</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>54703</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>